--- a/sitemap/docs_virtocommerce_org_new_user_docs-sitemap.xlsx
+++ b/sitemap/docs_virtocommerce_org_new_user_docs-sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\vc-docs\sitemap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Virto\vc-docs\sitemap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83F4F7-C03F-4384-9EE5-34C9A2926CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311D9D02-1F36-479D-ACDC-128A26FCA8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="docs_virtocommerce_org_new_user" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="310">
   <si>
     <t>Original Url</t>
   </si>
@@ -499,13 +499,457 @@
     <t>https://docs.virtocommerce.org/new/user_docs/thumbnails/using-thumbnails/</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>platform/user-guide/glossary/</t>
   </si>
   <si>
     <t>marketplace/user-guide/Operator-portal/master-catalog-taxonomy-management/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/modules-installation/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/platform-overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/search/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/cart/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/add-new-catalog/</t>
+  </si>
+  <si>
+    <t>deleted page</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/managing-categories/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/managing-product-variations/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/managing-products/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/managing-properties/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/managing-search-index/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/product-indexing/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/setting-product-availability/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/add-new-catalog/#view-catalogs</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/managing-product-variations/#view-product-variations</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog/managing-properties/#view-properties</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog-personalization/example/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog-personalization/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog-personalization/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/catalog-personalization/user-groups/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/contacts/managing-contacts/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/contacts/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/contacts/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/content/managing-blogs/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/content/managing-linklists/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/content/managing-pages/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/content/managing-themes/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/content/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/content/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/contracts/creating-and-terminating-contracts/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/contracts/managing-contract-customers/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/contracts/managing-contract-prices/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/contracts/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/generic-export/advanced-filtering/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/generic-export/assigning-permissions/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/generic-export/exporting-data/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/generic-export/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/generic-export/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/avalara/address-validation/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/avalara/tax-type-configuration/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/avalara/orders-synchronization/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/avalara/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/avalara/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/avalara/taxes-calculation/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/google-analytics/integration/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/google-analytics/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/google-analytics/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/hotjar/getting-started/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/integrations/hotjar/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/inventory/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/inventory/managing-inventory/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/inventory/managing-fulfillment-centers/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/inventory/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/advertising-spot/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/managing-content-items/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/managing-content-placeholders/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/managing-published-content/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/publish-conditions/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/promotions-overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/managing-promotions/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/combining-active-promotions/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/promotion-rules/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/marketing/dynamic-content-overview/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Operator-portal/overview/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Operator-portal/Commission-fees-setup/overview/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Operator-portal/Commission-fees-setup/static-commission-fees/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Operator-portal/Commission-fees-setup/dynamic-commission-fees/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Operator-portal/products-management/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Operator-portal/Vendors-management/vendor-onboarding/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Operator-portal/Vendors-management/vendor-management/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Vendor-portal/offers-management-by-vendor/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Vendor-portal/overview/</t>
+  </si>
+  <si>
+    <t>marketplace/user-guide/Vendor-portal/products-management-by-vendor/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/notifications/notification-layouts/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/notifications/notification-list/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/notifications/notification-log/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/notifications/notification-templates/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/notifications/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/notifications/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/indexation/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/main-objects/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/managing-documents/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/managing-returns/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/notifications/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/permissions/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/sending-order-information-to-avatax/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/order-management/tracking-order-changes/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/creating-new-price-list/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/adding-new-assignment/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/export-functionality/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/viewing-price-list-in-catalog/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/managing-pricing-module-settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/troubleshooting-guide/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/example/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/pricing/creating-new-price-list/#add-and-edit-product-prices</t>
+  </si>
+  <si>
+    <t>platform/user-guide/security/api-key/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/security/login-on-behalf/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/security/managing-users/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/security/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/security/roles-and-permissions/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/sitemaps/configuring-sitemaps/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/sitemaps/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/sitemaps/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/store/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/store/adding-new-store/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/store/configuring-store/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/store/settings/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/addresses/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/checkout-defaults/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/company-info/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/company-members/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/dashboard/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/lists/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/orders/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/overview/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/profile/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/account/quote-requests/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/navigation/homepage-layout/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/navigation/product-page-layout/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/registration_and_signing_in/create-account/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/registration_and_signing_in/password-management/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/registration_and_signing_in/sign-in/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/shopping/bulk-orders/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/shopping/checkout-process/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/shopping/compare-products/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/shopping/lists/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/shopping/searching-for-products/</t>
+  </si>
+  <si>
+    <t>storefront/user-guide/shopping/submit-quotes/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/tasks/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/tasks/using-application/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/tasks/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/tasks/roles-permissions/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/thumbnails/overview/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/thumbnails/generating-thumbnails/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/thumbnails/settings/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/thumbnails/thumbnail-options/</t>
+  </si>
+  <si>
+    <t>platform/user-guide/thumbnails/using-thumbnails/</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1004,49 +1448,49 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Гиперссылка" xfId="42" builtinId="8"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1062,9 +1506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1102,7 +1546,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1208,7 +1652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1360,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,6 +1826,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
       <c r="BL2" s="1"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -1389,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BL3" s="1"/>
     </row>
@@ -1398,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BL4" s="1"/>
     </row>
@@ -1406,426 +1853,639 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
       <c r="BL5" s="1"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
       <c r="BL6" s="1"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
       <c r="BL7" s="1"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
       <c r="BL8" s="1"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
       <c r="BL9" s="1"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
       <c r="BL10" s="1"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
       <c r="BL11" s="1"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
       <c r="BL12" s="1"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
       <c r="BL13" s="1"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
       <c r="BL14" s="1"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
       <c r="BL15" s="1"/>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
       <c r="BL16" s="1"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
       <c r="BL17" s="1"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
       <c r="BL18" s="1"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
       <c r="BL19" s="1"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
       <c r="BL20" s="1"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
       <c r="BL21" s="1"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22" t="s">
+        <v>177</v>
+      </c>
       <c r="BL22" s="1"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
       <c r="BL23" s="1"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
       <c r="BL24" s="1"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
       <c r="BL25" s="1"/>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
       <c r="BL26" s="1"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
       <c r="BL27" s="1"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
       <c r="BL28" s="1"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
       <c r="BL29" s="1"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
       <c r="BL30" s="1"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
       <c r="BL31" s="1"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
       <c r="BL32" s="1"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
       <c r="BL33" s="1"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
       <c r="BL34" s="1"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
       <c r="BL35" s="1"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
       <c r="BL36" s="1"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
       <c r="BL37" s="1"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
       <c r="BL38" s="1"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
       <c r="BL39" s="1"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
       <c r="BL40" s="1"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
       <c r="BL41" s="1"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
       <c r="BL42" s="1"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
       <c r="BL43" s="1"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
       <c r="BL44" s="1"/>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
       <c r="BL45" s="1"/>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
       <c r="BL46" s="1"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
       <c r="BL47" s="1"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
       <c r="BL48" s="1"/>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
       <c r="BL49" s="1"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
       <c r="BL50" s="1"/>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
       <c r="BL51" s="1"/>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
       <c r="BL52" s="1"/>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
       <c r="BL53" s="1"/>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
+      <c r="B54" t="s">
+        <v>208</v>
+      </c>
       <c r="BL54" s="1"/>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
+      <c r="B55" t="s">
+        <v>209</v>
+      </c>
       <c r="BL55" s="1"/>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
       <c r="BL56" s="1"/>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
       <c r="BL57" s="1"/>
     </row>
     <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
       <c r="BL58" s="1"/>
     </row>
     <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
       <c r="BL59" s="1"/>
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
+      <c r="B60" t="s">
+        <v>216</v>
+      </c>
       <c r="BL60" s="1"/>
     </row>
     <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
       <c r="BL61" s="1"/>
     </row>
     <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
       <c r="BL62" s="1"/>
     </row>
     <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
+      <c r="B63" t="s">
+        <v>217</v>
+      </c>
       <c r="BL63" s="1"/>
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
+      <c r="B64" t="s">
+        <v>219</v>
+      </c>
       <c r="BL64" s="1"/>
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
+      <c r="B65" t="s">
+        <v>226</v>
+      </c>
       <c r="BL65" s="1"/>
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
       <c r="BL66" s="1"/>
     </row>
     <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
+      <c r="B67" t="s">
+        <v>220</v>
+      </c>
       <c r="BL67" s="1"/>
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
       <c r="BL68" s="1"/>
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
       <c r="BL69" s="1"/>
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
+      <c r="B70" t="s">
+        <v>222</v>
+      </c>
       <c r="BL70" s="1"/>
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
       <c r="BL71" s="1"/>
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
       <c r="BL72" s="1"/>
     </row>
     <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
+      <c r="B73" t="s">
+        <v>224</v>
+      </c>
       <c r="BL73" s="1"/>
     </row>
     <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
+      <c r="B74" t="s">
+        <v>223</v>
+      </c>
       <c r="BL74" s="1"/>
     </row>
     <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
+      <c r="B75" t="s">
+        <v>228</v>
+      </c>
       <c r="BL75" s="1"/>
     </row>
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
@@ -1833,7 +2493,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="BL76" s="1"/>
     </row>
@@ -1841,491 +2501,737 @@
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
       <c r="BL77" s="1"/>
     </row>
     <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
+      <c r="B78" t="s">
+        <v>230</v>
+      </c>
       <c r="BL78" s="1"/>
     </row>
     <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
       <c r="BL79" s="1"/>
     </row>
     <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
+      <c r="B80" t="s">
+        <v>234</v>
+      </c>
       <c r="BL80" s="1"/>
     </row>
     <row r="81" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
       <c r="BL81" s="1"/>
     </row>
     <row r="82" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
+      <c r="B82" t="s">
+        <v>233</v>
+      </c>
       <c r="BL82" s="1"/>
     </row>
     <row r="83" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
+      <c r="B83" t="s">
+        <v>237</v>
+      </c>
       <c r="BL83" s="1"/>
     </row>
     <row r="84" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
+      <c r="B84" t="s">
+        <v>236</v>
+      </c>
       <c r="BL84" s="1"/>
     </row>
     <row r="85" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
+      <c r="B85" t="s">
+        <v>238</v>
+      </c>
       <c r="BL85" s="1"/>
     </row>
     <row r="86" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
+      <c r="B86" t="s">
+        <v>239</v>
+      </c>
       <c r="BL86" s="1"/>
     </row>
     <row r="87" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
+      <c r="B87" t="s">
+        <v>240</v>
+      </c>
       <c r="BL87" s="1"/>
     </row>
     <row r="88" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
+      <c r="B88" t="s">
+        <v>241</v>
+      </c>
       <c r="BL88" s="1"/>
     </row>
     <row r="89" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
+      <c r="B89" t="s">
+        <v>242</v>
+      </c>
       <c r="BL89" s="1"/>
     </row>
     <row r="90" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
+      <c r="B90" t="s">
+        <v>243</v>
+      </c>
       <c r="BL90" s="1"/>
     </row>
     <row r="91" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
+      <c r="B91" t="s">
+        <v>244</v>
+      </c>
       <c r="BL91" s="1"/>
     </row>
     <row r="92" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
+      <c r="B92" t="s">
+        <v>245</v>
+      </c>
       <c r="BL92" s="1"/>
     </row>
     <row r="93" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
+      <c r="B93" t="s">
+        <v>246</v>
+      </c>
       <c r="BL93" s="1"/>
     </row>
     <row r="94" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
+      <c r="B94" t="s">
+        <v>167</v>
+      </c>
       <c r="BL94" s="1"/>
     </row>
     <row r="95" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
+      <c r="B95" t="s">
+        <v>247</v>
+      </c>
       <c r="BL95" s="1"/>
     </row>
     <row r="96" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
+      <c r="B96" t="s">
+        <v>248</v>
+      </c>
       <c r="BL96" s="1"/>
     </row>
     <row r="97" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
+      <c r="B97" t="s">
+        <v>249</v>
+      </c>
       <c r="BL97" s="1"/>
     </row>
     <row r="98" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
+      <c r="B98" t="s">
+        <v>250</v>
+      </c>
       <c r="BL98" s="1"/>
     </row>
     <row r="99" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
+      <c r="B99" t="s">
+        <v>251</v>
+      </c>
       <c r="BL99" s="1"/>
     </row>
     <row r="100" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
+      <c r="B100" t="s">
+        <v>252</v>
+      </c>
       <c r="BL100" s="1"/>
     </row>
     <row r="101" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
+      <c r="B101" t="s">
+        <v>253</v>
+      </c>
       <c r="BL101" s="1"/>
     </row>
     <row r="102" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
       <c r="BL102" s="1"/>
     </row>
     <row r="103" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
+      <c r="B103" t="s">
+        <v>255</v>
+      </c>
       <c r="BL103" s="1"/>
     </row>
     <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
+      <c r="B104" t="s">
+        <v>256</v>
+      </c>
       <c r="BL104" s="1"/>
     </row>
     <row r="105" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
+      <c r="B105" t="s">
+        <v>259</v>
+      </c>
       <c r="BL105" s="1"/>
     </row>
     <row r="106" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
+      <c r="B106" t="s">
+        <v>265</v>
+      </c>
       <c r="BL106" s="1"/>
     </row>
     <row r="107" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
+      <c r="B107" t="s">
+        <v>258</v>
+      </c>
       <c r="BL107" s="1"/>
     </row>
     <row r="108" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
+      <c r="B108" t="s">
+        <v>264</v>
+      </c>
       <c r="BL108" s="1"/>
     </row>
     <row r="109" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
+      <c r="B109" t="s">
+        <v>260</v>
+      </c>
       <c r="BL109" s="1"/>
     </row>
     <row r="110" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
+      <c r="B110" t="s">
+        <v>262</v>
+      </c>
       <c r="BL110" s="1"/>
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
+      <c r="B111" t="s">
+        <v>257</v>
+      </c>
       <c r="BL111" s="1"/>
     </row>
     <row r="112" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
+      <c r="B112" t="s">
+        <v>263</v>
+      </c>
       <c r="BL112" s="1"/>
     </row>
     <row r="113" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
+      <c r="B113" t="s">
+        <v>261</v>
+      </c>
       <c r="BL113" s="1"/>
     </row>
     <row r="114" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
+      <c r="B114" t="s">
+        <v>266</v>
+      </c>
       <c r="BL114" s="1"/>
     </row>
     <row r="115" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
+      <c r="B115" t="s">
+        <v>267</v>
+      </c>
       <c r="BL115" s="1"/>
     </row>
     <row r="116" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
+      <c r="B116" t="s">
+        <v>268</v>
+      </c>
       <c r="BL116" s="1"/>
     </row>
     <row r="117" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
+      <c r="B117" t="s">
+        <v>269</v>
+      </c>
       <c r="BL117" s="1"/>
     </row>
     <row r="118" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
+      <c r="B118" t="s">
+        <v>270</v>
+      </c>
       <c r="BL118" s="1"/>
     </row>
     <row r="119" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
+      <c r="B119" t="s">
+        <v>271</v>
+      </c>
       <c r="BL119" s="1"/>
     </row>
     <row r="120" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
+      <c r="B120" t="s">
+        <v>272</v>
+      </c>
       <c r="BL120" s="1"/>
     </row>
     <row r="121" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
+      <c r="B121" t="s">
+        <v>273</v>
+      </c>
       <c r="BL121" s="1"/>
     </row>
     <row r="122" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
+      <c r="B122" t="s">
+        <v>275</v>
+      </c>
       <c r="BL122" s="1"/>
     </row>
     <row r="123" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
+      <c r="B123" t="s">
+        <v>276</v>
+      </c>
       <c r="BL123" s="1"/>
     </row>
     <row r="124" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
+      <c r="B124" t="s">
+        <v>274</v>
+      </c>
       <c r="BL124" s="1"/>
     </row>
     <row r="125" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
+      <c r="B125" t="s">
+        <v>277</v>
+      </c>
       <c r="BL125" s="1"/>
     </row>
     <row r="126" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
+      <c r="B126" t="s">
+        <v>278</v>
+      </c>
       <c r="BL126" s="1"/>
     </row>
     <row r="127" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
+      <c r="B127" t="s">
+        <v>279</v>
+      </c>
       <c r="BL127" s="1"/>
     </row>
     <row r="128" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
+      <c r="B128" t="s">
+        <v>280</v>
+      </c>
       <c r="BL128" s="1"/>
     </row>
     <row r="129" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
+      <c r="B129" t="s">
+        <v>281</v>
+      </c>
       <c r="BL129" s="1"/>
     </row>
     <row r="130" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
+      <c r="B130" t="s">
+        <v>282</v>
+      </c>
       <c r="BL130" s="1"/>
     </row>
     <row r="131" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
+      <c r="B131" t="s">
+        <v>283</v>
+      </c>
       <c r="BL131" s="1"/>
     </row>
     <row r="132" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
+      <c r="B132" t="s">
+        <v>284</v>
+      </c>
       <c r="BL132" s="1"/>
     </row>
     <row r="133" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
+      <c r="B133" t="s">
+        <v>285</v>
+      </c>
       <c r="BL133" s="1"/>
     </row>
     <row r="134" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
+      <c r="B134" t="s">
+        <v>286</v>
+      </c>
       <c r="BL134" s="1"/>
     </row>
     <row r="135" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
+      <c r="B135" t="s">
+        <v>287</v>
+      </c>
       <c r="BL135" s="1"/>
     </row>
     <row r="136" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
+      <c r="B136" t="s">
+        <v>288</v>
+      </c>
       <c r="BL136" s="1"/>
     </row>
     <row r="137" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
+      <c r="B137" t="s">
+        <v>289</v>
+      </c>
       <c r="BL137" s="1"/>
     </row>
     <row r="138" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
+      <c r="B138" t="s">
+        <v>290</v>
+      </c>
       <c r="BL138" s="1"/>
     </row>
     <row r="139" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
+      <c r="B139" t="s">
+        <v>291</v>
+      </c>
       <c r="BL139" s="1"/>
     </row>
     <row r="140" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
+      <c r="B140" t="s">
+        <v>292</v>
+      </c>
       <c r="BL140" s="1"/>
     </row>
     <row r="141" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
+      <c r="B141" t="s">
+        <v>293</v>
+      </c>
       <c r="BL141" s="1"/>
     </row>
     <row r="142" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
+      <c r="B142" t="s">
+        <v>167</v>
+      </c>
       <c r="BL142" s="1"/>
     </row>
     <row r="143" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
+      <c r="B143" t="s">
+        <v>294</v>
+      </c>
       <c r="BL143" s="1"/>
     </row>
     <row r="144" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
       <c r="BL144" s="1"/>
     </row>
     <row r="145" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
+      <c r="B145" t="s">
+        <v>296</v>
+      </c>
       <c r="BL145" s="1"/>
     </row>
     <row r="146" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
+      <c r="B146" t="s">
+        <v>297</v>
+      </c>
       <c r="BL146" s="1"/>
     </row>
     <row r="147" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
+      <c r="B147" t="s">
+        <v>298</v>
+      </c>
       <c r="BL147" s="1"/>
     </row>
     <row r="148" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
+      <c r="B148" t="s">
+        <v>299</v>
+      </c>
       <c r="BL148" s="1"/>
     </row>
     <row r="149" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
+      <c r="B149" t="s">
+        <v>167</v>
+      </c>
       <c r="BL149" s="1"/>
     </row>
     <row r="150" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
+      <c r="B150" t="s">
+        <v>300</v>
+      </c>
       <c r="BL150" s="1"/>
     </row>
     <row r="151" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
+      <c r="B151" t="s">
+        <v>303</v>
+      </c>
       <c r="BL151" s="1"/>
     </row>
     <row r="152" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
+      <c r="B152" t="s">
+        <v>302</v>
+      </c>
       <c r="BL152" s="1"/>
     </row>
     <row r="153" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
       <c r="BL153" s="1"/>
     </row>
     <row r="154" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
       <c r="BL154" s="1"/>
     </row>
     <row r="155" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
+      <c r="B155" t="s">
+        <v>304</v>
+      </c>
       <c r="BL155" s="1"/>
     </row>
     <row r="156" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
+      <c r="B156" t="s">
+        <v>306</v>
+      </c>
       <c r="BL156" s="1"/>
     </row>
     <row r="157" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
+      <c r="B157" t="s">
+        <v>307</v>
+      </c>
       <c r="BL157" s="1"/>
     </row>
     <row r="158" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>308</v>
       </c>
       <c r="BL158" s="1"/>
     </row>
